--- a/import/raw_data/wuppertal/energy_poverty.xlsx
+++ b/import/raw_data/wuppertal/energy_poverty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bef\GitHub\micat\import\raw_data\wuppertal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1C4F32-DEA2-4EC8-B80E-5FAC83D16D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5847C3B7-C9B1-466F-9424-CF57CB7FC356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="46080" windowHeight="12060" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20388" yWindow="0" windowWidth="20664" windowHeight="16656" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="25" sheetId="9" r:id="rId1"/>
@@ -1742,10 +1742,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2763,6 +2763,204 @@
         <v>17</v>
       </c>
       <c r="C92">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>30</v>
+      </c>
+      <c r="B93">
+        <v>30</v>
+      </c>
+      <c r="C93">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>30</v>
+      </c>
+      <c r="B94">
+        <v>31</v>
+      </c>
+      <c r="C94">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>31</v>
+      </c>
+      <c r="B95">
+        <v>32</v>
+      </c>
+      <c r="C95">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>31</v>
+      </c>
+      <c r="B96">
+        <v>33</v>
+      </c>
+      <c r="C96">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>32</v>
+      </c>
+      <c r="B97">
+        <v>34</v>
+      </c>
+      <c r="C97">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>32</v>
+      </c>
+      <c r="B98">
+        <v>35</v>
+      </c>
+      <c r="C98">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>33</v>
+      </c>
+      <c r="B99">
+        <v>36</v>
+      </c>
+      <c r="C99">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>33</v>
+      </c>
+      <c r="B100">
+        <v>37</v>
+      </c>
+      <c r="C100">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>33</v>
+      </c>
+      <c r="B101">
+        <v>38</v>
+      </c>
+      <c r="C101">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>34</v>
+      </c>
+      <c r="B102">
+        <v>36</v>
+      </c>
+      <c r="C102">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>34</v>
+      </c>
+      <c r="B103">
+        <v>37</v>
+      </c>
+      <c r="C103">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>34</v>
+      </c>
+      <c r="B104">
+        <v>38</v>
+      </c>
+      <c r="C104">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>35</v>
+      </c>
+      <c r="B105">
+        <v>36</v>
+      </c>
+      <c r="C105">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>35</v>
+      </c>
+      <c r="B106">
+        <v>37</v>
+      </c>
+      <c r="C106">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>35</v>
+      </c>
+      <c r="B107">
+        <v>38</v>
+      </c>
+      <c r="C107">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>36</v>
+      </c>
+      <c r="B108">
+        <v>37</v>
+      </c>
+      <c r="C108">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>37</v>
+      </c>
+      <c r="B109">
+        <v>37</v>
+      </c>
+      <c r="C109">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>38</v>
+      </c>
+      <c r="B110">
+        <v>37</v>
+      </c>
+      <c r="C110">
         <v>20</v>
       </c>
     </row>
